--- a/SubRES_TMPL/SubRES_RCI_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_RCI_Techs.xlsx
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0" shapeId="0">
+    <comment ref="G43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0" shapeId="0">
+    <comment ref="I43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="0" shapeId="0">
+    <comment ref="G50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0" shapeId="0">
+    <comment ref="I50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1537,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1651,7 +1651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1724,7 +1724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2050,7 +2050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2287,7 +2287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2583,15 +2583,9 @@
     <t>Industry Pulp and Paper Technology - New</t>
   </si>
   <si>
-    <t>IGLTN1</t>
-  </si>
-  <si>
     <t>INDELC</t>
   </si>
   <si>
-    <t>Industry GlassTechnology - New</t>
-  </si>
-  <si>
     <t>COMELCH</t>
   </si>
   <si>
@@ -2671,9 +2665,6 @@
   </si>
   <si>
     <t>IPP</t>
-  </si>
-  <si>
-    <t>IGL</t>
   </si>
   <si>
     <t>MEUR/MW</t>
@@ -2897,7 +2888,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2954,7 +2945,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3401,19 +3391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U71"/>
+  <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
@@ -3504,13 +3494,13 @@
         <v>60</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>59</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -3577,23 +3567,23 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="22"/>
       <c r="R9"/>
@@ -3609,10 +3599,10 @@
         <v>70</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="25">
         <v>2015</v>
@@ -3737,10 +3727,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" s="25">
         <v>2015</v>
@@ -3865,10 +3855,10 @@
         <v>78</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F18" s="25">
         <v>2015</v>
@@ -3993,10 +3983,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="25">
         <v>2015</v>
@@ -4121,10 +4111,10 @@
         <v>82</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="25">
         <v>2015</v>
@@ -4249,10 +4239,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" s="25">
         <v>2015</v>
@@ -4393,10 +4383,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="25">
         <v>2012</v>
@@ -4429,7 +4419,7 @@
       </c>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27" t="s">
         <v>85</v>
       </c>
@@ -4437,10 +4427,10 @@
         <v>87</v>
       </c>
       <c r="D35" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="F35" s="27">
         <v>2012</v>
@@ -4473,260 +4463,254 @@
       </c>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25" t="s">
+    <row r="36" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+    </row>
+    <row r="37" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="25">
+      <c r="C37" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="25">
         <v>2012</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25">
         <v>2012</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="25">
+      <c r="I37" s="26"/>
+      <c r="J37" s="25">
         <v>30</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K37" s="26">
         <v>9.395973154362415E-2</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L37" s="26">
         <v>0</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M37" s="26">
         <v>0</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="25">
+      <c r="N37" s="26"/>
+      <c r="O37" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P37" s="25">
         <v>1</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q37" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27" t="s">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="27">
+      <c r="C38" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="27">
         <v>2012</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27">
         <v>2012</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="27">
+      <c r="I38" s="28"/>
+      <c r="J38" s="27">
         <v>30</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K38" s="28">
         <v>0.10738255033557047</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L38" s="28">
         <v>0</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M38" s="28">
         <v>0</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="27">
+      <c r="N38" s="28"/>
+      <c r="O38" s="27">
         <v>1</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P38" s="27">
         <v>1</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q38" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O38" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+    <row r="44" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+    <row r="51" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C52" s="11" t="str">
         <f>B10</f>
         <v>RHTNGABN1</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D52" s="11" t="str">
         <f>C10</f>
         <v>Residential heating technology  - natural gas boiler - new 1</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11" t="str">
-        <f>B14</f>
-        <v>RHTCPWDBN1</v>
-      </c>
-      <c r="D52" s="11" t="str">
-        <f>C14</f>
-        <v>Residential heating technology detached build. - biomass boiler automatic stoking - new 1</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>71</v>
@@ -4745,12 +4729,12 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="str">
-        <f>B18</f>
-        <v>RHTCPWMBN2</v>
+        <f>B14</f>
+        <v>RHTCPWDBN1</v>
       </c>
       <c r="D53" s="11" t="str">
-        <f>C18</f>
-        <v>Residential heating technology multistorey build. - biomass boiler automatic stoking - new 1</v>
+        <f>C14</f>
+        <v>Residential heating technology detached build. - biomass boiler automatic stoking - new 1</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>71</v>
@@ -4769,12 +4753,12 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="str">
-        <f>B22</f>
-        <v>RHTELCXN1</v>
+        <f>B18</f>
+        <v>RHTCPWMBN2</v>
       </c>
       <c r="D54" s="11" t="str">
-        <f>C22</f>
-        <v>Residential heating technology  - direct eletrical heating - new 1</v>
+        <f>C18</f>
+        <v>Residential heating technology multistorey build. - biomass boiler automatic stoking - new 1</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>71</v>
@@ -4793,12 +4777,12 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="str">
-        <f>B26</f>
-        <v>RHTELCXN2</v>
+        <f>B22</f>
+        <v>RHTELCXN1</v>
       </c>
       <c r="D55" s="11" t="str">
-        <f>C26</f>
-        <v>Residential heating technology  - Heat pump, air-to-air - new 2</v>
+        <f>C22</f>
+        <v>Residential heating technology  - direct eletrical heating - new 1</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>71</v>
@@ -4817,12 +4801,12 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="str">
-        <f>B30</f>
-        <v>RCTACN1</v>
+        <f>B26</f>
+        <v>RHTELCXN2</v>
       </c>
       <c r="D56" s="11" t="str">
-        <f>C30</f>
-        <v>Residential cooling technology  - AC - new 1</v>
+        <f>C26</f>
+        <v>Residential heating technology  - Heat pump, air-to-air - new 2</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>71</v>
@@ -4841,12 +4825,12 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="str">
-        <f t="shared" ref="C57:D60" si="0">B34</f>
-        <v>RHTDBDHN1</v>
+        <f>B30</f>
+        <v>RCTACN1</v>
       </c>
       <c r="D57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential heating technology detached buildings - district heat - new 1</v>
+        <f>C30</f>
+        <v>Residential cooling technology  - AC - new 1</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>71</v>
@@ -4865,12 +4849,12 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>RHTMBDHN1</v>
+        <f>B34</f>
+        <v>RHTDBDHN1</v>
       </c>
       <c r="D58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential cooling technology  - AC - new 1</v>
+        <f>C34</f>
+        <v>Residential heating technology detached buildings - district heat - new 1</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>71</v>
@@ -4889,116 +4873,150 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>RSTDB</v>
+        <f>B35</f>
+        <v>RHTMBDHN1</v>
       </c>
       <c r="D59" s="11" t="str">
-        <f>C36</f>
-        <v>Residential saving technology Detached buildings</v>
+        <f>C35</f>
+        <v>Residential cooling technology  - AC - new 1</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="I59" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
-      <c r="C60" s="11" t="str">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="str">
+        <f t="shared" ref="C61:C62" si="0">B37</f>
+        <v>RSTDB</v>
+      </c>
+      <c r="D61" s="11" t="str">
+        <f>C37</f>
+        <v>Residential saving technology Detached buildings</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>RSTMB</v>
       </c>
-      <c r="D60" s="11" t="str">
-        <f>C37</f>
+      <c r="D62" s="11" t="str">
+        <f>C38</f>
         <v>Residential saving technology Multistorey buildings</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G60" s="11" t="s">
+      <c r="F62" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="62" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="64" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="13" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+    <row r="66" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="15"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="13" t="s">
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D71" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+    <row r="72" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5012,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5181,20 +5199,20 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -5210,10 +5228,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="25">
         <v>2015</v>
@@ -5406,10 +5424,10 @@
         <v>91</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="25">
         <v>2015</v>
@@ -5557,13 +5575,13 @@
         <v>2.8</v>
       </c>
       <c r="J17" s="27"/>
-      <c r="K17" s="31">
+      <c r="K17" s="30">
         <v>0.45999999999999991</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="30">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <v>0</v>
       </c>
       <c r="N17" s="28"/>
@@ -5590,10 +5608,10 @@
         <v>95</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="F18" s="25">
         <v>2015</v>
@@ -5688,33 +5706,33 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31">
         <v>2050</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32">
         <v>3.5</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33">
+      <c r="J21" s="31"/>
+      <c r="K21" s="32">
         <v>0.37481481481481477</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="32">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="32">
         <v>0</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="32">
         <v>0.2</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32">
+      <c r="O21" s="31"/>
+      <c r="P21" s="31">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
@@ -5726,10 +5744,10 @@
         <v>93</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="11">
         <v>2012</v>
@@ -6101,10 +6119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U47"/>
+  <dimension ref="B2:U42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6270,20 +6288,20 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -6299,10 +6317,10 @@
         <v>97</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" s="25">
         <v>2015</v>
@@ -6388,7 +6406,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="2:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -6416,410 +6434,262 @@
       <c r="P13" s="27"/>
     </row>
     <row r="14" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="25">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
-        <v>2015</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="26">
-        <v>0.12666666666666668</v>
-      </c>
-      <c r="L14" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="26">
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25">
-        <v>3.1536000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
-        <v>2020</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
-        <v>0.92</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28">
-        <v>0.12333333333333334</v>
-      </c>
-      <c r="L15" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M15" s="28">
-        <v>2</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
-        <v>2030</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
-        <v>0.94</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28">
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="L16" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M16" s="28">
-        <v>2</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="2:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30">
-        <v>2050</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31">
-        <v>0.98</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31">
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="L17" s="31">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M17" s="31">
-        <v>2</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-    </row>
-    <row r="18" spans="2:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="O20" s="3"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+    <row r="28" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C29" s="11" t="str">
         <f>B10</f>
         <v>IPPTN1</v>
       </c>
-      <c r="D33" s="11" t="str">
+      <c r="D29" s="11" t="str">
         <f>C10</f>
         <v>Industry Pulp and Paper Technology - New</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="str">
-        <f>B14</f>
-        <v>IGLTN1</v>
-      </c>
-      <c r="D34" s="11" t="str">
-        <f>C14</f>
-        <v>Industry GlassTechnology - New</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="33" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+    <row r="41" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SubRES_TMPL/SubRES_RCI_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_RCI_Techs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EFE0F-8890-4729-B413-B423ED8D492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1365" windowWidth="17940" windowHeight="9855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCI_Residential" sheetId="11" r:id="rId1"/>
@@ -17,17 +18,30 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G43" authorId="0" shapeId="0">
+    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0">
+    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="0" shapeId="0">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0" shapeId="0">
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -540,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -777,12 +791,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0">
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -969,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0">
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1139,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0">
+    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1532,12 +1546,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1651,7 +1665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1724,7 +1738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +2001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2050,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2287,7 +2301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2674,12 +2688,15 @@
   </si>
   <si>
     <t>MEUR/PJ</t>
+  </si>
+  <si>
+    <t>*TechDesc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2888,30 +2905,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2925,10 +2938,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2942,19 +2955,17 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Colore 2" xfId="1"/>
+    <cellStyle name="20% - Colore 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
-    <cellStyle name="Normale_B2020" xfId="4"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normale_B2020" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2970,7 +2981,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3105,9 +3116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3145,9 +3156,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3182,7 +3193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3217,7 +3228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3390,11 +3401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3422,15 +3433,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F5" s="2"/>
@@ -3441,11 +3452,11 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -3454,1114 +3465,1114 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="16"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
     </row>
     <row r="9" spans="2:21" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="22"/>
+      <c r="Q9" s="20"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
     </row>
     <row r="10" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>2015</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <v>2015</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>1.02</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>22</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>0.4</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="24">
         <v>1.35E-2</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>2</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>0.2</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>2020</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="22">
         <v>1.02</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
+      <c r="J11" s="9"/>
+      <c r="K11" s="22">
         <v>0.4</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>1.35E-2</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>2</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>2030</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="22">
         <v>1.02</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28">
+      <c r="J12" s="9"/>
+      <c r="K12" s="22">
         <v>0.4</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>1.35E-2</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>2</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="2:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>2050</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="22">
         <v>1.02</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28">
+      <c r="J13" s="9"/>
+      <c r="K13" s="22">
         <v>0.4</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>1.35E-2</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>2</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>2015</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>2015</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>0.8</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>20</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.48333333333333339</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>2E-3</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="24">
         <v>0</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="24">
         <v>0.2</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25">
+      <c r="O14" s="23"/>
+      <c r="P14" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>2020</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22">
         <v>0.87</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28">
+      <c r="J15" s="9"/>
+      <c r="K15" s="22">
         <v>0.52500000000000002</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>2E-3</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>0</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>2030</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="22">
         <v>0.91</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28">
+      <c r="J16" s="9"/>
+      <c r="K16" s="22">
         <v>0.65</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>0</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>2050</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="22">
         <v>0.95</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28">
+      <c r="J17" s="9"/>
+      <c r="K17" s="22">
         <v>0.65</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="22">
         <v>0</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>2015</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <v>2015</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>0.85</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>20</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <v>0.2</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>6.3E-3</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>0</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="24">
         <v>0.2</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25">
+      <c r="O18" s="23"/>
+      <c r="P18" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q18" s="25"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <v>2020</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="22">
         <v>0.87</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28">
+      <c r="J19" s="9"/>
+      <c r="K19" s="22">
         <v>0.2</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="22">
         <v>6.3E-3</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>0</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>2030</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="22">
         <v>0.91</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28">
+      <c r="J20" s="9"/>
+      <c r="K20" s="22">
         <v>0.2</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="22">
         <v>0</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
         <v>2050</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="22">
         <v>0.95</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28">
+      <c r="J21" s="9"/>
+      <c r="K21" s="22">
         <v>0.2</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="22">
         <v>0</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <v>2015</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
         <v>2015</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="24">
         <v>1</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>30</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="24">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="24">
         <v>2E-3</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="24">
         <v>0</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="24">
         <v>0.2</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25">
+      <c r="O22" s="23"/>
+      <c r="P22" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
         <v>2020</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="22">
         <v>1</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28">
+      <c r="J23" s="9"/>
+      <c r="K23" s="22">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="22">
         <v>0</v>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <v>2030</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="22">
         <v>1</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28">
+      <c r="J24" s="9"/>
+      <c r="K24" s="22">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="22">
         <v>0</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
         <v>2050</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="22">
         <v>1</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28">
+      <c r="J25" s="9"/>
+      <c r="K25" s="22">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="22">
         <v>0</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>2015</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23">
         <v>2015</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="24">
         <v>2.8</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="23">
         <v>20</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="24">
         <v>0.54</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="24">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="24">
         <v>0</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="24">
         <v>0.2</v>
       </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25">
+      <c r="O26" s="23"/>
+      <c r="P26" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>2020</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="22">
         <v>2.8</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28">
+      <c r="J27" s="9"/>
+      <c r="K27" s="22">
         <v>0.52</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="22">
         <v>0</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>2030</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="22">
         <v>2.8</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28">
+      <c r="J28" s="9"/>
+      <c r="K28" s="22">
         <v>0.48</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="22">
         <v>0</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <v>2050</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="22">
         <v>2.8</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28">
+      <c r="J29" s="9"/>
+      <c r="K29" s="22">
         <v>0.45999999999999991</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="22">
         <v>0</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="23">
         <v>2015</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23">
         <v>2015</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="24">
         <v>3.2</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="23">
         <v>10</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="24">
         <f>(440*7.45/1000)/7.45</f>
         <v>0.44</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="24">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="24">
         <v>0</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="24">
         <v>0.2</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25">
+      <c r="O30" s="23"/>
+      <c r="P30" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q30" s="25"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
         <v>2020</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="22">
         <v>3.3</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28">
+      <c r="J31" s="9"/>
+      <c r="K31" s="22">
         <f>(K30*K27/K26)/7.45</f>
         <v>5.6872980362913245E-2</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="22">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="22">
         <v>0</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="22">
         <v>0.2</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27">
+      <c r="O31" s="9"/>
+      <c r="P31" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
         <v>2030</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="22">
         <v>3.4</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28">
+      <c r="J32" s="9"/>
+      <c r="K32" s="22">
         <f>(K31*K28/K27)/7.45</f>
         <v>7.0467296267935874E-3</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="22">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="22">
         <v>0</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="22">
         <v>0.2</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27">
+      <c r="O32" s="9"/>
+      <c r="P32" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <v>2050</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="22">
         <v>3.5</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28">
+      <c r="J33" s="9"/>
+      <c r="K33" s="22">
         <f>(K32*K29/K28)/7.45</f>
         <v>9.0645850903944348E-4</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="22">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="22">
         <v>0</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="22">
         <v>0.2</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q33" s="27"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="23">
         <v>2012</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23">
         <v>2012</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="24">
         <v>0.96</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="23">
         <v>30</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="24">
         <v>0.18581456910321242</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="24">
         <v>1.2825E-2</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="24">
         <v>1.9</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="24">
         <v>0.2</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25">
+      <c r="O34" s="23"/>
+      <c r="P34" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q34" s="25"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="9">
         <v>2012</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
         <v>2012</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="22">
         <v>1</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="9">
         <v>30</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="22">
         <v>0.16107382550335569</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="22">
         <v>1.2825E-2</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="22">
         <v>1.6107382550335569</v>
       </c>
-      <c r="N35" s="28">
+      <c r="N35" s="22">
         <v>0.2</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27">
+      <c r="O35" s="9"/>
+      <c r="P35" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="2:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="2:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="23">
         <v>2012</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25">
+      <c r="G37" s="23"/>
+      <c r="H37" s="23">
         <v>2012</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="25">
+      <c r="I37" s="24"/>
+      <c r="J37" s="23">
         <v>30</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="24">
         <v>9.395973154362415E-2</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="24">
         <v>0</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="25">
+      <c r="N37" s="24"/>
+      <c r="O37" s="23">
         <v>1</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="23">
         <v>1</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="Q37" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="9">
         <v>2012</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
         <v>2012</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="27">
+      <c r="I38" s="22"/>
+      <c r="J38" s="9">
         <v>30</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="22">
         <v>0.10738255033557047</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="22">
         <v>0</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="22">
         <v>0</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="27">
+      <c r="N38" s="22"/>
+      <c r="O38" s="9">
         <v>1</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P38" s="9">
         <v>1</v>
       </c>
-      <c r="Q38" s="27">
+      <c r="Q38" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4581,66 +4592,66 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -4649,331 +4660,331 @@
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="11" t="str">
+      <c r="C52" s="9" t="str">
         <f>B10</f>
         <v>RHTNGABN1</v>
       </c>
-      <c r="D52" s="11" t="str">
+      <c r="D52" s="9" t="str">
         <f>C10</f>
         <v>Residential heating technology  - natural gas boiler - new 1</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="str">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="str">
         <f>B14</f>
         <v>RHTCPWDBN1</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D53" s="9" t="str">
         <f>C14</f>
         <v>Residential heating technology detached build. - biomass boiler automatic stoking - new 1</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="str">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="str">
         <f>B18</f>
         <v>RHTCPWMBN2</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D54" s="9" t="str">
         <f>C18</f>
         <v>Residential heating technology multistorey build. - biomass boiler automatic stoking - new 1</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11" t="str">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="str">
         <f>B22</f>
         <v>RHTELCXN1</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D55" s="9" t="str">
         <f>C22</f>
         <v>Residential heating technology  - direct eletrical heating - new 1</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11" t="str">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="str">
         <f>B26</f>
         <v>RHTELCXN2</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D56" s="9" t="str">
         <f>C26</f>
         <v>Residential heating technology  - Heat pump, air-to-air - new 2</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11" t="str">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="str">
         <f>B30</f>
         <v>RCTACN1</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D57" s="9" t="str">
         <f>C30</f>
         <v>Residential cooling technology  - AC - new 1</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11" t="str">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="str">
         <f>B34</f>
         <v>RHTDBDHN1</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D58" s="9" t="str">
         <f>C34</f>
         <v>Residential heating technology detached buildings - district heat - new 1</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11" t="str">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="str">
         <f>B35</f>
         <v>RHTMBDHN1</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D59" s="9" t="str">
         <f>C35</f>
         <v>Residential cooling technology  - AC - new 1</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="str">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="str">
         <f t="shared" ref="C61:C62" si="0">B37</f>
         <v>RSTDB</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D61" s="9" t="str">
         <f>C37</f>
         <v>Residential saving technology Detached buildings</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11" t="str">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RSTMB</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D62" s="9" t="str">
         <f>C38</f>
         <v>Residential saving technology Multistorey buildings</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="64" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
@@ -4990,33 +5001,33 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5027,11 +5038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5059,15 +5070,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="F5" s="2"/>
@@ -5078,107 +5089,107 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:26" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="R8"/>
@@ -5187,31 +5198,31 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="2:26" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="20" t="s">
         <v>114</v>
       </c>
       <c r="Q9"/>
@@ -5221,45 +5232,45 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>2015</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <v>2015</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>0.95</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>30</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>0.66500000000000004</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="24">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>0</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>0.2</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="R10">
@@ -5291,31 +5302,31 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>2020</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="22">
         <v>0.95</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
+      <c r="J11" s="9"/>
+      <c r="K11" s="22">
         <v>0.66500000000000004</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>0</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="R11">
         <v>2020</v>
       </c>
@@ -5333,31 +5344,31 @@
       </c>
     </row>
     <row r="12" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>2030</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="22">
         <v>0.95</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28">
+      <c r="J12" s="9"/>
+      <c r="K12" s="22">
         <v>0.66500000000000004</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>0</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="R12">
         <v>2030</v>
       </c>
@@ -5375,31 +5386,31 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>2050</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="22">
         <v>0.95</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28">
+      <c r="J13" s="9"/>
+      <c r="K13" s="22">
         <v>0.66500000000000004</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>0</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="R13">
         <v>2050</v>
       </c>
@@ -5417,45 +5428,45 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>2015</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>2015</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>2.8</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>20</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.54</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="24">
         <v>0</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="24">
         <v>0.2</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25">
+      <c r="O14" s="23"/>
+      <c r="P14" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="R14">
@@ -5484,31 +5495,31 @@
       </c>
     </row>
     <row r="15" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>2020</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22">
         <v>2.8</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28">
+      <c r="J15" s="9"/>
+      <c r="K15" s="22">
         <v>0.52</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>0</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="R15">
         <v>2020</v>
       </c>
@@ -5523,31 +5534,31 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>2030</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="22">
         <v>2.8</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28">
+      <c r="J16" s="9"/>
+      <c r="K16" s="22">
         <v>0.48</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>0</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
       <c r="R16">
         <v>2030</v>
       </c>
@@ -5562,31 +5573,31 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>2050</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="22">
         <v>2.8</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="30">
+      <c r="J17" s="9"/>
+      <c r="K17" s="26">
         <v>0.45999999999999991</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="26">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="26">
         <v>0</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="R17">
         <v>2050</v>
       </c>
@@ -5601,200 +5612,200 @@
       </c>
     </row>
     <row r="18" spans="2:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>2015</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <v>2015</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>3.2</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>10</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <v>0.44</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>0</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="24">
         <v>0.2</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25">
+      <c r="O18" s="23"/>
+      <c r="P18" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="2:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <v>2020</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="22">
         <v>3.3</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28">
+      <c r="J19" s="9"/>
+      <c r="K19" s="22">
         <v>0.42370370370370369</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="22">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>0</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="22">
         <v>0.2</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>2030</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="22">
         <v>3.4</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28">
+      <c r="J20" s="9"/>
+      <c r="K20" s="22">
         <v>0.39111111111111113</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="22">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="22">
         <v>0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="22">
         <v>0.2</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:24" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
         <v>2050</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28">
         <v>3.5</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32">
+      <c r="J21" s="27"/>
+      <c r="K21" s="28">
         <v>0.37481481481481477</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="28">
         <v>1.3422818791946308E-3</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="28">
         <v>0</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="28">
         <v>0.2</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31">
+      <c r="O21" s="27"/>
+      <c r="P21" s="27">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>2012</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
         <v>2012</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>30</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="22">
         <v>0.15885725327472594</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="22">
         <v>0</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="22">
         <v>0.2</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11">
+      <c r="O22" s="9"/>
+      <c r="P22" s="9">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O25" s="3"/>
@@ -5812,66 +5823,66 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:24" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -5880,191 +5891,191 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="9" t="str">
         <f>B10</f>
         <v>CHTELCXN1</v>
       </c>
-      <c r="D38" s="11" t="str">
+      <c r="D38" s="9" t="str">
         <f>C10</f>
         <v>Commercial heating technology  - direct eletrical heating - new 1</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="str">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="str">
         <f>B14</f>
         <v>CHTELCXN2</v>
       </c>
-      <c r="D39" s="11" t="str">
+      <c r="D39" s="9" t="str">
         <f>C14</f>
         <v>Commercial heating technology  - Heat pump, air-to-air - new 2</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="str">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="str">
         <f>B18</f>
         <v>CCTACN1</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D40" s="9" t="str">
         <f>C18</f>
         <v>Commercial cooling technology  - AC - new 1</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="str">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="str">
         <f>B22</f>
         <v>CHTHCEBN1</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="9" t="str">
         <f>C22</f>
         <v>Commercial heating technology  - district heat - new 1</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
@@ -6081,33 +6092,33 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6118,11 +6129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6148,15 +6159,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F5" s="2"/>
@@ -6167,107 +6178,107 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="R8"/>
@@ -6276,31 +6287,31 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="2:21" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="20" t="s">
         <v>114</v>
       </c>
       <c r="Q9"/>
@@ -6310,145 +6321,145 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>2015</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <v>2015</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>0.9</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>25</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>0.12666666666666668</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>2</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>0.2</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>2020</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="22">
         <v>0.92</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
+      <c r="J11" s="9"/>
+      <c r="K11" s="22">
         <v>0.12333333333333334</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>2</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>2030</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="22">
         <v>0.94</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28">
+      <c r="J12" s="9"/>
+      <c r="K12" s="22">
         <v>0.12000000000000001</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>2</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>2050</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="22">
         <v>0.98</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28">
+      <c r="J13" s="9"/>
+      <c r="K13" s="22">
         <v>0.12000000000000001</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>2</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="2:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O16" s="3"/>
@@ -6466,66 +6477,66 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -6534,119 +6545,119 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="9" t="str">
         <f>B10</f>
         <v>IPPTN1</v>
       </c>
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="9" t="str">
         <f>C10</f>
         <v>Industry Pulp and Paper Technology - New</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="33" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
@@ -6663,33 +6674,33 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
